--- a/data/trans_media/IQ09_A-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ09_A-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,99</t>
+          <t>0,1; 0,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,19; 1,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 0,96</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,99</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,0</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 0,98</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,14</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,0</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,14</t>
+          <t>0,1; 1,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,82</t>
+          <t>0,22; 0,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,77</t>
+          <t>0,14; 0,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,89</t>
+          <t>0,0; 0,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,09</t>
+          <t>1,27; 4,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,8</t>
+          <t>0,77; 2,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,93</t>
+          <t>0,39; 2,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,35</t>
+          <t>1,17; 4,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,12</t>
+          <t>1,3; 4,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,15</t>
+          <t>0,84; 3,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,01</t>
+          <t>0,98; 3,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,17</t>
+          <t>0,79; 5,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,82</t>
+          <t>1,77; 3,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,45</t>
+          <t>1,02; 2,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,55</t>
+          <t>0,82; 2,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,93</t>
+          <t>1,41; 4,02</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,79</t>
+          <t>1,75; 6,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,76</t>
+          <t>0,0; 7,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,6</t>
+          <t>0,85; 5,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,92</t>
+          <t>1,19; 4,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 7,69</t>
+          <t>0,55; 7,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,09</t>
+          <t>1,0; 5,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,1</t>
+          <t>0,0; 3,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,58</t>
+          <t>0,98; 5,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,91</t>
+          <t>1,82; 5,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,22</t>
+          <t>1,44; 5,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,24</t>
+          <t>0,97; 4,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,49</t>
+          <t>1,56; 4,68</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 10,48</t>
+          <t>1,24; 10,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,44</t>
+          <t>2,43; 7,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,93</t>
+          <t>1,94; 9,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 10,31</t>
+          <t>4,05; 10,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,64</t>
+          <t>0,0; 14,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,9</t>
+          <t>1,79; 8,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,74</t>
+          <t>0,75; 8,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 9,7</t>
+          <t>2,06; 10,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,79</t>
+          <t>1,59; 8,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,26</t>
+          <t>2,58; 6,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,13</t>
+          <t>1,88; 7,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,61</t>
+          <t>3,99; 9,29</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,91</t>
+          <t>2,04; 4,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,1</t>
+          <t>1,7; 4,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,78</t>
+          <t>1,28; 3,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,48</t>
+          <t>2,75; 5,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,65</t>
+          <t>1,31; 4,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,12</t>
+          <t>1,32; 3,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,17</t>
+          <t>0,91; 3,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,07</t>
+          <t>1,98; 4,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,1</t>
+          <t>2,09; 4,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,26</t>
+          <t>1,74; 3,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,97</t>
+          <t>1,38; 3,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,99</t>
+          <t>2,75; 5,1</t>
         </is>
       </c>
     </row>
